--- a/biology/Microbiologie/Bikosea/Bikosea.xlsx
+++ b/biology/Microbiologie/Bikosea/Bikosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Bikosea ou Bicosoecida (CINZ) ou Bicosoecales/Bicoecea (ICBN) sont une classe de chromistes de l'embranchement des Bigyra.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la classe vient du genre type Bicosoeca décrit par James-Clark en 1866 est dérivé des racines grecques βικοσ / bikos, « amphore, vase, bol », et  -oekein, habitat. Le composé philologique préférable serait Bicoeca, tel que « corrigé » par Stein en 1878 et suivi par la plupart des auteurs ultérieurs. Cependant, selon l'ICBN et l'ICZN, l'orthographe originale du nom ne peut être considérée comme incorrecte et devrait être utilisée dans sa forme originale.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 septembre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 septembre 2022) :
 Bicoecida Grassé, 1926</t>
         </is>
       </c>
@@ -626,10 +646,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (7 septembre 2022)[1] , le nom correct complet (avec auteur) de ce taxon est Bikosea A.R.Loeblich, Jr &amp; A.R.Loeblich, III[1].
-Mais la pertinence de ce clade étant controversée, cette classe de protiste est aussi nommée Bikosea Caval.-Sm., 2013, selon The Taxonomicon  (7 septembre 2022)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (7 septembre 2022) , le nom correct complet (avec auteur) de ce taxon est Bikosea A.R.Loeblich, Jr &amp; A.R.Loeblich, III.
+Mais la pertinence de ce clade étant controversée, cette classe de protiste est aussi nommée Bikosea Caval.-Sm., 2013, selon The Taxonomicon  (7 septembre 2022).
 </t>
         </is>
       </c>
